--- a/test.xlsx
+++ b/test.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="0" showSheetTabs="0" showVerticalScroll="0" tabRatio="600" visibility="visible" windowHeight="7752" windowWidth="20496" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="0" showSheetTabs="0" showVerticalScroll="0" tabRatio="600" visibility="visible" windowHeight="8145" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АЗС" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Клиент</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>г.Барнаул,ул.Гоголя,51</t>
+  </si>
+  <si>
+    <t>Данных нет</t>
   </si>
   <si>
     <t>XL-M-S (1)</t>
@@ -441,13 +444,13 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
@@ -530,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,7 +568,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,29 +784,29 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.88671875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="11.88671875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="24.5546875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10.88671875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="9.109375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10.44140625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="12.33203125"/>
-    <col customWidth="1" max="9" min="8" style="1" width="14.109375"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13.44140625"/>
-    <col customWidth="1" max="11" min="11" style="1" width="7.6640625"/>
-    <col customWidth="1" max="12" min="12" style="1" width="10.44140625"/>
-    <col customWidth="1" max="15" min="13" style="1" width="9.109375"/>
-    <col customWidth="1" max="16" min="16" style="1" width="26.33203125"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13.6640625"/>
-    <col customWidth="1" max="16384" min="18" style="1" width="9.109375"/>
+    <col customWidth="1" max="1" min="1" style="1" width="5.85546875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="11.85546875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="24.5703125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10.85546875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="9.140625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10.42578125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="12.28515625"/>
+    <col customWidth="1" max="9" min="8" style="1" width="14.140625"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13.42578125"/>
+    <col customWidth="1" max="11" min="11" style="1" width="7.7109375"/>
+    <col customWidth="1" max="12" min="12" style="1" width="10.42578125"/>
+    <col customWidth="1" max="15" min="13" style="1" width="9.140625"/>
+    <col customWidth="1" max="16" min="16" style="1" width="26.28515625"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13.7109375"/>
+    <col customWidth="1" max="16384" min="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33.9" r="1" s="3" spans="1:17">
+    <row customFormat="1" customHeight="1" ht="33.95" r="1" s="3" spans="1:17">
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="27" t="s">
         <v>0</v>
@@ -842,7 +845,7 @@
     <row customFormat="1" customHeight="1" ht="30" r="2" s="3" spans="1:17">
       <c r="A2" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="14.4" r="3" spans="1:17">
+    <row r="3" spans="1:17">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -886,16 +889,16 @@
       <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="25" t="s">
@@ -908,9 +911,9 @@
         <v>21</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="6" spans="1:17">
+    <row r="6" spans="1:17">
       <c r="B6" s="8" t="n">
-        <v>32200</v>
+        <v>13007</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>22</v>
@@ -924,20 +927,20 @@
       <c r="I6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="23" t="n">
+      <c r="M6" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="P6" s="15" t="n">
-        <v>1919</v>
+      <c r="P6" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="Q6" s="14">
         <f>P6-M6</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="7" spans="1:17">
+    <row r="7" spans="1:17">
       <c r="B7" s="8" t="n">
-        <v>32202</v>
+        <v>13108</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>22</v>
@@ -946,24 +949,22 @@
         <v>12</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="23">
+        <v>27</v>
+      </c>
+      <c r="M7" s="22">
         <f>M6</f>
         <v/>
       </c>
-      <c r="P7" s="15" t="n">
-        <v>1918</v>
-      </c>
+      <c r="P7" s="15" t="n"/>
       <c r="Q7" s="14">
         <f>P7-M7</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="8" spans="1:17">
+    <row r="8" spans="1:17">
       <c r="B8" s="8" t="n">
         <v>32205</v>
       </c>
@@ -974,24 +975,22 @@
         <v>12</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="23">
+        <v>28</v>
+      </c>
+      <c r="M8" s="22">
         <f>M7</f>
         <v/>
       </c>
-      <c r="P8" s="15" t="n">
-        <v>1915</v>
-      </c>
+      <c r="P8" s="15" t="n"/>
       <c r="Q8" s="14">
         <f>P8-M8</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="9" spans="1:17">
+    <row r="9" spans="1:17">
       <c r="B9" s="8" t="n">
         <v>32210</v>
       </c>
@@ -1002,24 +1001,22 @@
         <v>12</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="23">
+        <v>29</v>
+      </c>
+      <c r="M9" s="22">
         <f>M8</f>
         <v/>
       </c>
-      <c r="P9" s="15" t="n">
-        <v>1919</v>
-      </c>
+      <c r="P9" s="15" t="n"/>
       <c r="Q9" s="14">
         <f>P9-M9</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="10" spans="1:17">
+    <row r="10" spans="1:17">
       <c r="B10" s="8" t="n">
         <v>32213</v>
       </c>
@@ -1030,24 +1027,22 @@
         <v>12</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="23">
+        <v>30</v>
+      </c>
+      <c r="M10" s="22">
         <f>M9</f>
         <v/>
       </c>
-      <c r="P10" s="15" t="n">
-        <v>1900</v>
-      </c>
+      <c r="P10" s="15" t="n"/>
       <c r="Q10" s="14">
         <f>P10-M10</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="11" spans="1:17">
+    <row r="11" spans="1:17">
       <c r="B11" s="8" t="n">
         <v>32218</v>
       </c>
@@ -1061,21 +1056,19 @@
         <v>23</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="23">
+        <v>31</v>
+      </c>
+      <c r="M11" s="22">
         <f>M10</f>
         <v/>
       </c>
-      <c r="P11" s="15" t="n">
-        <v>1918</v>
-      </c>
+      <c r="P11" s="15" t="n"/>
       <c r="Q11" s="14">
         <f>P11-M11</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="12" spans="1:17">
+    <row r="12" spans="1:17">
       <c r="B12" s="8" t="n">
         <v>32219</v>
       </c>
@@ -1089,21 +1082,19 @@
         <v>23</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="23">
+        <v>32</v>
+      </c>
+      <c r="M12" s="22">
         <f>M11</f>
         <v/>
       </c>
-      <c r="P12" s="15" t="n">
-        <v>1918</v>
-      </c>
+      <c r="P12" s="15" t="n"/>
       <c r="Q12" s="14">
         <f>P12-M12</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="13" spans="1:17">
+    <row r="13" spans="1:17">
       <c r="B13" s="8" t="n">
         <v>32220</v>
       </c>
@@ -1117,21 +1108,19 @@
         <v>23</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="23">
+        <v>33</v>
+      </c>
+      <c r="M13" s="22">
         <f>M12</f>
         <v/>
       </c>
-      <c r="P13" s="15" t="n">
-        <v>1919</v>
-      </c>
+      <c r="P13" s="15" t="n"/>
       <c r="Q13" s="14">
         <f>P13-M13</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="14" spans="1:17">
+    <row r="14" spans="1:17">
       <c r="B14" s="8" t="n">
         <v>32221</v>
       </c>
@@ -1145,15 +1134,13 @@
         <v>23</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="23">
+        <v>34</v>
+      </c>
+      <c r="M14" s="22">
         <f>M13</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="n">
-        <v>1918</v>
-      </c>
+      <c r="P14" s="15" t="n"/>
       <c r="Q14" s="14">
         <f>P14-M14</f>
         <v/>
@@ -1181,33 +1168,33 @@
       </c>
     </row>
     <row r="16" spans="1:17"/>
-    <row customHeight="1" ht="28.8" r="17" spans="1:17">
+    <row customHeight="1" ht="30" r="17" spans="1:17">
       <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="24" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="18" spans="1:17">
+    <row r="18" spans="1:17">
       <c r="B18" s="8" t="n">
         <v>32200</v>
       </c>
@@ -1223,18 +1210,16 @@
       <c r="I18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="23" t="n">
+      <c r="M18" s="22" t="n">
         <v>5280</v>
       </c>
-      <c r="P18" s="15" t="n">
-        <v>1919</v>
-      </c>
+      <c r="P18" s="15" t="n"/>
       <c r="Q18" s="33">
         <f>P18-M18</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="19" spans="1:17">
+    <row r="19" spans="1:17">
       <c r="B19" s="8" t="n">
         <v>32202</v>
       </c>
@@ -1245,24 +1230,22 @@
         <v>12</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="23">
+        <v>27</v>
+      </c>
+      <c r="M19" s="22">
         <f>M18</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q19" s="33">
+      <c r="P19" s="15" t="n"/>
+      <c r="Q19" s="14">
         <f>P19-M19</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="20" spans="1:17">
+    <row r="20" spans="1:17">
       <c r="B20" s="8" t="n">
         <v>32205</v>
       </c>
@@ -1273,24 +1256,22 @@
         <v>12</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="23">
+        <v>28</v>
+      </c>
+      <c r="M20" s="22">
         <f>M19</f>
         <v/>
       </c>
-      <c r="P20" s="15" t="n">
-        <v>1915</v>
-      </c>
-      <c r="Q20" s="33">
+      <c r="P20" s="15" t="n"/>
+      <c r="Q20" s="14">
         <f>P20-M20</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="21" spans="1:17">
+    <row r="21" spans="1:17">
       <c r="B21" s="8" t="n">
         <v>32210</v>
       </c>
@@ -1301,24 +1282,22 @@
         <v>12</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="23">
+        <v>29</v>
+      </c>
+      <c r="M21" s="22">
         <f>M20</f>
         <v/>
       </c>
-      <c r="P21" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q21" s="33">
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="14">
         <f>P21-M21</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="22" spans="1:17">
+    <row r="22" spans="1:17">
       <c r="B22" s="8" t="n">
         <v>32213</v>
       </c>
@@ -1329,24 +1308,22 @@
         <v>12</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="23">
+        <v>30</v>
+      </c>
+      <c r="M22" s="22">
         <f>M21</f>
         <v/>
       </c>
-      <c r="P22" s="15" t="n">
-        <v>1900</v>
-      </c>
-      <c r="Q22" s="33">
+      <c r="P22" s="15" t="n"/>
+      <c r="Q22" s="14">
         <f>P22-M22</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="23" spans="1:17">
+    <row r="23" spans="1:17">
       <c r="B23" s="8" t="n">
         <v>32218</v>
       </c>
@@ -1360,21 +1337,19 @@
         <v>23</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="23">
+        <v>31</v>
+      </c>
+      <c r="M23" s="22">
         <f>M22</f>
         <v/>
       </c>
-      <c r="P23" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q23" s="33">
+      <c r="P23" s="15" t="n"/>
+      <c r="Q23" s="14">
         <f>P23-M23</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="24" spans="1:17">
+    <row r="24" spans="1:17">
       <c r="B24" s="8" t="n">
         <v>32219</v>
       </c>
@@ -1388,21 +1363,19 @@
         <v>23</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="23">
+        <v>32</v>
+      </c>
+      <c r="M24" s="22">
         <f>M23</f>
         <v/>
       </c>
-      <c r="P24" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q24" s="33">
+      <c r="P24" s="15" t="n"/>
+      <c r="Q24" s="14">
         <f>P24-M24</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="25" spans="1:17">
+    <row r="25" spans="1:17">
       <c r="B25" s="8" t="n">
         <v>32220</v>
       </c>
@@ -1416,21 +1389,19 @@
         <v>23</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="23">
+        <v>33</v>
+      </c>
+      <c r="M25" s="22">
         <f>M24</f>
         <v/>
       </c>
-      <c r="P25" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q25" s="33">
+      <c r="P25" s="15" t="n"/>
+      <c r="Q25" s="14">
         <f>P25-M25</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="26" spans="1:17">
+    <row r="26" spans="1:17">
       <c r="B26" s="8" t="n">
         <v>32221</v>
       </c>
@@ -1444,16 +1415,14 @@
         <v>23</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="23">
+        <v>34</v>
+      </c>
+      <c r="M26" s="22">
         <f>M25</f>
         <v/>
       </c>
-      <c r="P26" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q26" s="33">
+      <c r="P26" s="15" t="n"/>
+      <c r="Q26" s="14">
         <f>P26-M26</f>
         <v/>
       </c>
@@ -1465,33 +1434,33 @@
       </c>
     </row>
     <row r="28" spans="1:17"/>
-    <row customHeight="1" ht="28.8" r="29" spans="1:17">
+    <row customHeight="1" ht="30" r="29" spans="1:17">
       <c r="B29" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="24" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="30" spans="1:17">
+    <row r="30" spans="1:17">
       <c r="B30" s="8" t="n">
         <v>32200</v>
       </c>
@@ -1507,19 +1476,17 @@
       <c r="I30" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="22">
         <f>15*480</f>
         <v/>
       </c>
-      <c r="P30" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q30" s="33">
+      <c r="P30" s="15" t="n"/>
+      <c r="Q30" s="14">
         <f>P30-M30</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="31" spans="1:17">
+    <row r="31" spans="1:17">
       <c r="B31" s="8" t="n">
         <v>32202</v>
       </c>
@@ -1530,24 +1497,22 @@
         <v>12</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="23">
+        <v>27</v>
+      </c>
+      <c r="M31" s="22">
         <f>M30</f>
         <v/>
       </c>
-      <c r="P31" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q31" s="33">
+      <c r="P31" s="15" t="n"/>
+      <c r="Q31" s="14">
         <f>P31-M31</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="32" spans="1:17">
+    <row r="32" spans="1:17">
       <c r="B32" s="8" t="n">
         <v>32205</v>
       </c>
@@ -1558,24 +1523,22 @@
         <v>12</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="23">
+        <v>28</v>
+      </c>
+      <c r="M32" s="22">
         <f>M31</f>
         <v/>
       </c>
-      <c r="P32" s="15" t="n">
-        <v>1915</v>
-      </c>
-      <c r="Q32" s="33">
+      <c r="P32" s="15" t="n"/>
+      <c r="Q32" s="14">
         <f>P32-M32</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="33" spans="1:17">
+    <row r="33" spans="1:17">
       <c r="B33" s="8" t="n">
         <v>32210</v>
       </c>
@@ -1586,24 +1549,22 @@
         <v>12</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="23">
+        <v>29</v>
+      </c>
+      <c r="M33" s="22">
         <f>M32</f>
         <v/>
       </c>
-      <c r="P33" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q33" s="33">
+      <c r="P33" s="15" t="n"/>
+      <c r="Q33" s="14">
         <f>P33-M33</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="34" spans="1:17">
+    <row r="34" spans="1:17">
       <c r="B34" s="8" t="n">
         <v>32213</v>
       </c>
@@ -1614,24 +1575,22 @@
         <v>12</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" s="23">
+        <v>30</v>
+      </c>
+      <c r="M34" s="22">
         <f>M33</f>
         <v/>
       </c>
-      <c r="P34" s="15" t="n">
-        <v>1900</v>
-      </c>
-      <c r="Q34" s="33">
+      <c r="P34" s="15" t="n"/>
+      <c r="Q34" s="14">
         <f>P34-M34</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="35" spans="1:17">
+    <row r="35" spans="1:17">
       <c r="B35" s="8" t="n">
         <v>32218</v>
       </c>
@@ -1645,21 +1604,19 @@
         <v>23</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="23">
+        <v>31</v>
+      </c>
+      <c r="M35" s="22">
         <f>M34</f>
         <v/>
       </c>
-      <c r="P35" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q35" s="33">
+      <c r="P35" s="15" t="n"/>
+      <c r="Q35" s="14">
         <f>P35-M35</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="36" spans="1:17">
+    <row r="36" spans="1:17">
       <c r="B36" s="8" t="n">
         <v>32219</v>
       </c>
@@ -1673,21 +1630,19 @@
         <v>23</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="23">
+        <v>32</v>
+      </c>
+      <c r="M36" s="22">
         <f>M35</f>
         <v/>
       </c>
-      <c r="P36" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q36" s="33">
+      <c r="P36" s="15" t="n"/>
+      <c r="Q36" s="14">
         <f>P36-M36</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="37" spans="1:17">
+    <row r="37" spans="1:17">
       <c r="B37" s="8" t="n">
         <v>32220</v>
       </c>
@@ -1701,21 +1656,19 @@
         <v>23</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="23">
+        <v>33</v>
+      </c>
+      <c r="M37" s="22">
         <f>M36</f>
         <v/>
       </c>
-      <c r="P37" s="15" t="n">
-        <v>1919</v>
-      </c>
-      <c r="Q37" s="33">
+      <c r="P37" s="15" t="n"/>
+      <c r="Q37" s="14">
         <f>P37-M37</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="38" spans="1:17">
+    <row r="38" spans="1:17">
       <c r="B38" s="8" t="n">
         <v>32221</v>
       </c>
@@ -1729,21 +1682,22 @@
         <v>23</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" s="23">
+        <v>34</v>
+      </c>
+      <c r="M38" s="22">
         <f>M37</f>
         <v/>
       </c>
-      <c r="P38" s="15" t="n">
-        <v>1918</v>
-      </c>
-      <c r="Q38" s="33">
+      <c r="P38" s="15" t="n"/>
+      <c r="Q38" s="14">
         <f>P38-M38</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="39" spans="1:17">
+    <row customHeight="1" ht="15.75" r="39" spans="1:17">
+      <c r="N39" s="1" t="n">
+        <v>1000</v>
+      </c>
       <c r="Q39" s="19">
         <f>SUM(Q30:Q38)</f>
         <v/>
@@ -1821,12 +1775,6 @@
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="M18:O18"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:L25"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="M36:O36"/>
     <mergeCell ref="M37:O37"/>
@@ -1836,12 +1784,6 @@
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="I33:L33"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="I37:L37"/>
     <mergeCell ref="E38:H38"/>
@@ -1852,6 +1794,18 @@
     <mergeCell ref="I35:L35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="I36:L36"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
